--- a/data/trans_camb/P54_A_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_3_R-Urba-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,33</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,39</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,97; -9,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,26; -10,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,97; -13,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,59; -11,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,46; -13,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,98; -13,41</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,01%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; -72,85</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -82,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,99; -74,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,0; -87,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,96; -87,4</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,95</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,17; -2,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,34; -1,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,29; -14,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,73; -14,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,61; -10,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,6; -9,91</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,39%</t>
         </is>
       </c>
     </row>
@@ -876,27 +876,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 25,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -80,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -74,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -83,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -78,13</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,94</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,91</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,95; -3,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,95; -3,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,05; -12,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,04; -12,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,21; -11,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,91; -11,49</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,42</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,37</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,78; -8,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,82; -8,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,77; -16,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,53; -15,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,41; -13,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,37; -13,54</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,87%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,45%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,85%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,94%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -87,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -84,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,66; -86,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,9; -86,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,65; -90,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,65; -90,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P54_A_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_3_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,311 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-16,77</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-17,37</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-17,8</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-17,37</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-17,33</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-17,39</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-16.82136694016794</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-17.37228171988303</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-17.85643084727345</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-17.33656131428783</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-17.38566332296649</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-17.36006785374979</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-30,97; -9,94</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-33,26; -10,26</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-23,97; -13,06</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-23,59; -11,99</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-25,46; -13,15</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-25,98; -13,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-33.02603395246226</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-33.26291116422144</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-23.97045907235555</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-23.53703907292807</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-25.4150174840723</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-25.95403287297209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-96,51%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-95,02%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-92,75%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-95,68%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-96,01%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-9.775846578820081</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-10.26177752579966</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-13.08260067052869</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-12.0220788619267</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-13.3464834992609</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-13.3876263478285</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -72,85</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -82,1</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-97,99; -74,44</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-99,0; -87,25</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-98,96; -87,4</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.9682877132320188</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.9533049684932274</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.9255505861644027</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.9598960926041524</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.9584829172519632</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-6,14</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,49</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-21,36</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-21,56</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-14,14</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-13,95</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.9811381882638499</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.9892412662714861</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.9903796733325124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,17; -2,8</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,34; -1,82</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-28,29; -14,98</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-28,73; -14,78</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-18,61; -10,29</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-18,6; -9,91</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>-0.7750731773138406</v>
+      </c>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="n">
+        <v>-0.8368284963670581</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.7345986513807935</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.8856949940735317</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.8619345233323092</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-89,42%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-94,69%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-95,57%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-95,62%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-94,39%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-6.141407320893767</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.598654338851365</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-21.2039775861625</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-21.56600667179922</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-14.08248637866427</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-14.00891919218011</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 25,22</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -80,37</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -74,1</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -83,31</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -78,13</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.97703532400715</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.41827285280213</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-28.14041086294171</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-28.72558227566008</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-18.60233877990288</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-18.59215864322429</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-15,94</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-15,94</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-26,3</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-26,3</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-20,91</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-20,91</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-2.805168034494845</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-2.017258924904764</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-14.51132081859395</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-14.78753432053098</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-9.652453170495939</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-9.907656767611179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-35,95; -3,61</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-35,95; -3,61</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-43,05; -12,96</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-43,04; -12,96</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-34,21; -11,31</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-33,91; -11,49</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.9116240051045151</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.9397748091965102</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.9558201862251985</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.952556569598313</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.9475803952986862</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="n">
+        <v>0.06505748214662768</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.7841336139177891</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-0.7436044295490627</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>-0.8248871133622508</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.789640853188931</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,153 +920,293 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-12,36</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-12,38</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-20,01</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-19,89</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-16,42</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-16,37</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-15.93676414645731</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-15.93676414645731</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-26.30489879711046</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-26.30489879711046</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-20.91238421486878</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-20.91238421486878</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-19,78; -8,15</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-19,82; -8,38</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-24,77; -16,02</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-24,53; -15,67</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-20,41; -13,52</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-20,37; -13,54</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-35.94917260691585</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-35.94917260691585</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-43.05210622523826</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-43.04387836477238</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-34.21047689658688</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-33.90701889772467</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-97,68%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-97,87%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-95,45%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-94,85%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-96,21%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-95,94%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-3.611784459697789</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-3.611784459697789</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-12.96383462365124</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-12.95727810791811</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>-11.30686201610289</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-11.492337034769</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -87,03</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -84,99</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-98,66; -86,6</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-98,9; -86,47</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-98,65; -90,61</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-98,65; -90,17</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="inlineStr"/>
+      <c r="F21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-12.38543298151469</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-12.41910649060326</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-19.98727192632731</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-19.87621128218252</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-16.41910758461089</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-16.37875100538772</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-19.82889394869655</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-19.84718035117733</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-24.18810097061812</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-24.50716941268581</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-20.72653515874267</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-20.39820607428919</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-8.171245065063294</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-8.422786121070033</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-15.95018988867899</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-15.64716110332418</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-13.52031100707211</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-13.55655041916539</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.9790797633399199</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.9817416849181536</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.953210663984841</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>-0.9479140837042479</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>-0.9622881788293269</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>-0.9599229675092646</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.9878843690700982</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>-0.9887951862449502</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-0.9857948668168085</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>-0.986415072224852</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-0.8482057155564166</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.8709770848468732</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.8686654288843725</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>-0.8649084379936075</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>-0.9048821152782868</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>-0.8989646255143334</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1221,14 +1214,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
